--- a/spreadsheets/Zed.xlsx
+++ b/spreadsheets/Zed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B4503A-1B8E-405F-9DE8-19EC986DB33E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0718C730-BD50-4E4C-BCA9-1A0DBD551CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="4725" yWindow="2925" windowWidth="16875" windowHeight="10523" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Irelia</t>
   </si>
   <si>
-    <t>Jayce</t>
-  </si>
-  <si>
     <t>Kayle</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Corki</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
     <t>Fizz</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>Malzahar</t>
   </si>
   <si>
-    <t>Neeko</t>
-  </si>
-  <si>
     <t>Orianna</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>Use ghostblade to gapclose. He will W after you R so use your W to follow. If he flashes you flash.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>He will just shove and roam. You can't kill because of his R.</t>
   </si>
   <si>
@@ -338,9 +326,6 @@
   </si>
   <si>
     <t>His shove is really weak early and you win all ins. He will typically ult you immediately after you ult, but his CC lasts 0.5s less than deathmark. Unloading your damage when his CC ends will still add damage to the pop</t>
-  </si>
-  <si>
-    <t>Nobody plays neeko mid anymore</t>
   </si>
   <si>
     <t>Skill matchup. Very hard to poke because of her shield but she has low mobility so call for jungle help.</t>
@@ -885,82 +870,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,28 +961,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1013,20 +998,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1328125" style="4" customWidth="1"/>
     <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,21 +1022,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1059,94 +1044,94 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1154,397 +1139,370 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B14">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="22" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>53</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>54</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>55</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>59</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36">
+    <row r="38" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37" s="4" t="s">
+    <row r="39" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>62</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/Zed.xlsx
+++ b/spreadsheets/Zed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0718C730-BD50-4E4C-BCA9-1A0DBD551CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31C5222-8999-47C3-9A70-9EE158B3775D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="2925" windowWidth="16875" windowHeight="10523" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -292,9 +292,6 @@
     <t>He will just shove and roam. You can't kill because of his R.</t>
   </si>
   <si>
-    <t>Skillmatchup where you can use R to dodge his fish. Trying to bait out his E is a bit of a mindgame.</t>
-  </si>
-  <si>
     <t>He can't really do much to you. You outscale too.</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>His E is pretty weak CC so just all in him.</t>
   </si>
   <si>
-    <t>Play safe unitl 6. He hard outtrades you with shield.</t>
-  </si>
-  <si>
     <t>Cant kill him in lane and he outscales you. You must make plays around the map early or you will lose.</t>
   </si>
   <si>
@@ -386,6 +380,15 @@
   </si>
   <si>
     <t>https://www.twitch.tv/BarbecueRIbs_lol</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>Skill matchup where you can use R to dodge his fish. Trying to bait out his E is a bit of a mindgame.</t>
+  </si>
+  <si>
+    <t>Play safe until 6. He hard outtrades you with shield.</t>
   </si>
 </sst>
 </file>
@@ -870,19 +873,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -904,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,7 +918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -923,18 +926,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,7 +948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,31 +956,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
@@ -998,20 +1006,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="4" customWidth="1"/>
     <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1078,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1131,7 +1139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1172,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1183,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1194,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1205,10 +1213,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1216,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1227,10 +1235,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1238,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1249,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1260,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1271,10 +1279,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1282,10 +1290,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1293,10 +1301,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1304,10 +1312,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1315,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1326,10 +1334,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1337,10 +1345,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1348,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1359,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1370,10 +1378,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1381,10 +1389,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1392,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1403,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1414,10 +1422,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1425,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1436,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1447,10 +1455,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1458,10 +1466,10 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1469,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1480,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1491,10 +1499,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1502,9 +1510,12 @@
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
